--- a/dist/document/dest/2020/10/chi lam/26_bbh.xlsx
+++ b/dist/document/dest/2020/10/chi lam/26_bbh.xlsx
@@ -11,18 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Công ty TNHH DP Hoàng Trân</t>
   </si>
   <si>
-    <t>Trình Dược Viên: chi lam</t>
-  </si>
-  <si>
-    <t>PHÍ THÁNG (01/09 -&gt; 30/09/2020)</t>
-  </si>
-  <si>
-    <t>Bác Sĩ: Bùi Bỉnh Huân</t>
+    <t>TDV: chi lam</t>
+  </si>
+  <si>
+    <t>27/10/2020</t>
+  </si>
+  <si>
+    <t>Kính gửi khách hàng: 26</t>
   </si>
   <si>
     <t>STT</t>
@@ -46,13 +46,7 @@
     <t>CK</t>
   </si>
   <si>
-    <t>Aluantine</t>
-  </si>
-  <si>
-    <t>Optipan</t>
-  </si>
-  <si>
-    <t>Maxezole 40</t>
+    <t>Alua*****</t>
   </si>
   <si>
     <t>Tổng cộng</t>
@@ -501,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -587,100 +581,54 @@
         <v>11</v>
       </c>
       <c r="C6" s="10">
-        <v>2877</v>
+        <v>4814</v>
       </c>
       <c r="D6" s="10">
         <v>8000</v>
       </c>
       <c r="E6" s="10">
-        <v>23016000</v>
+        <v>38512000</v>
       </c>
       <c r="F6" s="10">
         <v>37</v>
       </c>
       <c r="G6" s="10">
-        <v>8515920</v>
-      </c>
-    </row>
-    <row r="7" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>2</v>
-      </c>
-      <c r="B7" s="9" t="s">
+        <v>14249440</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10">
-        <v>9900</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>42</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>3</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="11">
+        <v>4814</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11">
+        <v>38512000</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11">
+        <v>14249440</v>
+      </c>
+    </row>
+    <row r="8" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10">
-        <v>0</v>
-      </c>
-      <c r="D8" s="10">
-        <v>14000</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>55</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="11">
-        <v>2877</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11">
-        <v>23016000</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11">
-        <v>8515920</v>
-      </c>
-    </row>
-    <row r="10" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
